--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  ABASTOS  HERRADURA  ABRIL   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  ABASTOS  HERRADURA  ABRIL   2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE   ABRIL        2 0 2 2</t>
+  </si>
+  <si>
+    <t>PRIMO</t>
   </si>
 </sst>
 </file>
@@ -1064,13 +1067,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1117,13 +1120,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4707,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4798,7 +4801,7 @@
         <v>220</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H47" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H79" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -4833,7 +4836,7 @@
         <v>44654</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B25" si="1">B5+1</f>
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
         <v>178</v>
       </c>
       <c r="C6" s="16"/>
@@ -4847,11 +4850,11 @@
         <v>44656</v>
       </c>
       <c r="G6" s="25">
-        <v>3244</v>
+        <v>3344</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,11 +4872,15 @@
       <c r="E7" s="23">
         <v>450</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="F7" s="24">
+        <v>44665</v>
+      </c>
+      <c r="G7" s="25">
+        <v>450</v>
+      </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4943,321 +4950,531 @@
       <c r="E10" s="23">
         <v>2624</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="24">
+        <v>44659</v>
+      </c>
+      <c r="G10" s="25">
+        <v>2624</v>
+      </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
-        <v>2624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44660</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="23">
+        <v>9078</v>
+      </c>
+      <c r="F11" s="24">
+        <v>44661</v>
+      </c>
+      <c r="G11" s="25">
+        <v>9078</v>
+      </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>44660</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="23">
+        <v>410</v>
+      </c>
+      <c r="F12" s="24">
+        <v>44665</v>
+      </c>
+      <c r="G12" s="25">
+        <v>410</v>
+      </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44660</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3398</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44661</v>
+      </c>
+      <c r="G13" s="25">
+        <v>3398</v>
+      </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44661</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="23">
+        <v>8220</v>
+      </c>
+      <c r="F14" s="24">
+        <v>44662</v>
+      </c>
+      <c r="G14" s="25">
+        <v>8220</v>
+      </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44661</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="23">
+        <v>10616</v>
+      </c>
+      <c r="F15" s="24">
+        <v>44661</v>
+      </c>
+      <c r="G15" s="25">
+        <v>10616</v>
+      </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44664</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>188</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="23">
+        <v>12089</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44668</v>
+      </c>
+      <c r="G16" s="25">
+        <v>12089</v>
+      </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44667</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="23">
+        <v>484</v>
+      </c>
+      <c r="F17" s="24">
+        <v>44668</v>
+      </c>
+      <c r="G17" s="25">
+        <v>484</v>
+      </c>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44667</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="23">
+        <v>8715</v>
+      </c>
+      <c r="F18" s="24">
+        <v>44668</v>
+      </c>
+      <c r="G18" s="25">
+        <v>8715</v>
+      </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44667</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="23">
+        <v>4731</v>
+      </c>
+      <c r="F19" s="24">
+        <v>44668</v>
+      </c>
+      <c r="G19" s="25">
+        <v>4731</v>
+      </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44668</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="23">
+        <v>10217</v>
+      </c>
+      <c r="F20" s="24">
+        <v>44670</v>
+      </c>
+      <c r="G20" s="25">
+        <v>10217</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44670</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="23">
+        <v>12501</v>
+      </c>
+      <c r="F21" s="24">
+        <v>44672</v>
+      </c>
+      <c r="G21" s="25">
+        <v>12501</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44670</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="23">
+        <v>253</v>
+      </c>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44672</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="23">
+        <v>22352</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44674</v>
+      </c>
+      <c r="G23" s="25">
+        <v>22352</v>
+      </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44672</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="23">
+        <v>10475</v>
+      </c>
+      <c r="F24" s="24">
+        <v>44673</v>
+      </c>
+      <c r="G24" s="25">
+        <v>10475</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44673</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="23">
+        <v>21333</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44674</v>
+      </c>
+      <c r="G25" s="25">
+        <v>21333</v>
+      </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="14">
+        <v>44674</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="D26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="23">
+        <v>8824</v>
+      </c>
+      <c r="F26" s="24">
+        <v>44675</v>
+      </c>
+      <c r="G26" s="25">
+        <v>8824</v>
+      </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="14">
+        <v>44674</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="23">
+        <v>5975</v>
+      </c>
+      <c r="F27" s="24">
+        <v>44675</v>
+      </c>
+      <c r="G27" s="25">
+        <v>5975</v>
+      </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44674</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="23">
+        <v>4556</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44675</v>
+      </c>
+      <c r="G28" s="25">
+        <v>4556</v>
+      </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>44674</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="23">
+        <v>21330</v>
+      </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
+        <v>21330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>44675</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="23">
+        <v>8587</v>
+      </c>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>8587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
       <c r="C31" s="29"/>
       <c r="D31" s="27"/>
       <c r="E31" s="23"/>
@@ -5268,9 +5485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
       <c r="C32" s="29"/>
       <c r="D32" s="27"/>
       <c r="E32" s="23"/>
@@ -5281,9 +5501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
       <c r="C33" s="29"/>
       <c r="D33" s="27"/>
       <c r="E33" s="23"/>
@@ -5294,9 +5517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
       <c r="C34" s="29"/>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
@@ -5307,9 +5533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
       <c r="C35" s="29"/>
       <c r="D35" s="27"/>
       <c r="E35" s="23"/>
@@ -5320,10 +5549,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="15">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="C36" s="29"/>
       <c r="D36" s="27"/>
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
@@ -5333,10 +5565,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="15">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="C37" s="29"/>
       <c r="D37" s="27"/>
       <c r="E37" s="23"/>
       <c r="F37" s="24"/>
@@ -5346,9 +5581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
       <c r="C38" s="29"/>
       <c r="D38" s="27"/>
       <c r="E38" s="23"/>
@@ -5359,9 +5597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="15">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
       <c r="C39" s="29"/>
       <c r="D39" s="27"/>
       <c r="E39" s="23"/>
@@ -5372,9 +5613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
       <c r="C40" s="29"/>
       <c r="D40" s="27"/>
       <c r="E40" s="23"/>
@@ -5385,9 +5629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
       <c r="C41" s="29"/>
       <c r="D41" s="27"/>
       <c r="E41" s="23"/>
@@ -5398,9 +5645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
       <c r="C42" s="29"/>
       <c r="D42" s="27"/>
       <c r="E42" s="23"/>
@@ -5411,9 +5661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
       <c r="C43" s="29"/>
       <c r="D43" s="27"/>
       <c r="E43" s="23"/>
@@ -5424,9 +5677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
       <c r="C44" s="29"/>
       <c r="D44" s="27"/>
       <c r="E44" s="23"/>
@@ -5437,9 +5693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
       <c r="C45" s="29"/>
       <c r="D45" s="27"/>
       <c r="E45" s="23"/>
@@ -5450,9 +5709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
       <c r="C46" s="29"/>
       <c r="D46" s="27"/>
       <c r="E46" s="23"/>
@@ -5463,213 +5725,728 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43">
-        <v>0</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="49">
-        <f>SUM(E4:E47)</f>
-        <v>17351</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49">
-        <f>SUM(G4:G47)</f>
-        <v>14177</v>
-      </c>
-      <c r="H48" s="50">
-        <f>SUM(H4:H47)</f>
-        <v>3174</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="55" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15">
+        <f t="shared" ref="B70:B79" si="2">B69+1</f>
+        <v>242</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43">
+        <v>0</v>
+      </c>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="47"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="49">
+        <f>SUM(E4:E79)</f>
+        <v>201495</v>
+      </c>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49">
+        <f>SUM(G4:G79)</f>
+        <v>171325</v>
+      </c>
+      <c r="H80" s="50">
+        <f>SUM(H4:H79)</f>
+        <v>30170</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="47"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B82" s="47"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="56" t="s">
+      <c r="F82" s="52"/>
+      <c r="G82" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="70">
-        <f>E48-G48</f>
-        <v>3174</v>
-      </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="72"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="73" t="s">
+      <c r="H82" s="54"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="70">
+        <f>E80-G80</f>
+        <v>30170</v>
+      </c>
+      <c r="F84" s="71"/>
+      <c r="G84" s="72"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="59"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
-      <c r="I65" s="2"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="53"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="57"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="59"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="47"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="47"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="53"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="53"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="53"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="53"/>
+      <c r="I97" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  ABASTOS  HERRADURA  ABRIL   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  ABASTOS  HERRADURA  ABRIL   2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="27">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -297,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,6 +710,10 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -713,6 +723,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FF66FFFF"/>
     </mruColors>
@@ -4713,7 +4724,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5262,11 +5273,15 @@
       <c r="E22" s="23">
         <v>253</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="F22" s="24">
+        <v>44682</v>
+      </c>
+      <c r="G22" s="25">
+        <v>253</v>
+      </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5440,11 +5455,15 @@
       <c r="E29" s="23">
         <v>21330</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="24">
+        <v>44676</v>
+      </c>
+      <c r="G29" s="25">
+        <v>21330</v>
+      </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
-        <v>21330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5462,139 +5481,219 @@
       <c r="E30" s="23">
         <v>8587</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="F30" s="24">
+        <v>44676</v>
+      </c>
+      <c r="G30" s="25">
+        <v>8587</v>
+      </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
-        <v>8587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44676</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="23">
+        <v>11494</v>
+      </c>
+      <c r="F31" s="24">
+        <v>44679</v>
+      </c>
+      <c r="G31" s="25">
+        <v>11494</v>
+      </c>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>44676</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="23">
+        <v>52</v>
+      </c>
+      <c r="F32" s="24">
+        <v>44682</v>
+      </c>
+      <c r="G32" s="25">
+        <v>52</v>
+      </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44679</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="23">
+        <v>15177</v>
+      </c>
+      <c r="F33" s="24">
+        <v>44680</v>
+      </c>
+      <c r="G33" s="25">
+        <v>15177</v>
+      </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44679</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="23">
+        <v>528</v>
+      </c>
+      <c r="F34" s="24">
+        <v>44682</v>
+      </c>
+      <c r="G34" s="25">
+        <v>528</v>
+      </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>44680</v>
+      </c>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="23">
+        <v>23340</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44682</v>
+      </c>
+      <c r="G35" s="25">
+        <v>23340</v>
+      </c>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>44680</v>
+      </c>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="23">
+        <v>15388</v>
+      </c>
+      <c r="F36" s="24">
+        <v>44681</v>
+      </c>
+      <c r="G36" s="25">
+        <v>15388</v>
+      </c>
       <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <v>44681</v>
+      </c>
       <c r="B37" s="15">
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
+      <c r="D37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="23">
+        <v>6422</v>
+      </c>
+      <c r="F37" s="24">
+        <v>44682</v>
+      </c>
+      <c r="G37" s="25">
+        <v>6422</v>
+      </c>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>44681</v>
+      </c>
       <c r="B38" s="15">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="C38" s="29"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="23">
+        <v>11261</v>
+      </c>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -6262,16 +6361,16 @@
       <c r="D80" s="2"/>
       <c r="E80" s="49">
         <f>SUM(E4:E79)</f>
-        <v>201495</v>
+        <v>285157</v>
       </c>
       <c r="F80" s="49"/>
       <c r="G80" s="49">
         <f>SUM(G4:G79)</f>
-        <v>171325</v>
+        <v>273896</v>
       </c>
       <c r="H80" s="50">
         <f>SUM(H4:H79)</f>
-        <v>30170</v>
+        <v>11261</v>
       </c>
       <c r="I80" s="2"/>
     </row>
@@ -6315,7 +6414,7 @@
       <c r="D84" s="2"/>
       <c r="E84" s="70">
         <f>E80-G80</f>
-        <v>30170</v>
+        <v>11261</v>
       </c>
       <c r="F84" s="71"/>
       <c r="G84" s="72"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  ABASTOS  HERRADURA  ABRIL   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  ABASTOS  HERRADURA  ABRIL   2022.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES FEBRERO 2022" sheetId="2" r:id="rId2"/>
     <sheet name="REMISIONES   MARZO   2022  " sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
+    <sheet name="REMISIONES   ABRIL  2022" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -686,6 +686,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,10 +714,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1471,25 +1471,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2237,12 +2237,12 @@
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="70">
+      <c r="E45" s="72">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="72"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2258,11 +2258,11 @@
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,25 +2404,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3447,12 +3447,12 @@
       <c r="B55" s="47"/>
       <c r="C55" s="48"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="70">
+      <c r="E55" s="72">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="72"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="74"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3468,11 +3468,11 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3614,25 +3614,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4579,12 +4579,12 @@
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="70">
+      <c r="E52" s="72">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="72"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="74"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4600,11 +4600,11 @@
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="73" t="s">
+      <c r="E54" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4721,10 +4721,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4743,25 +4746,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5689,8 +5692,8 @@
       <c r="E38" s="23">
         <v>11261</v>
       </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
       <c r="H38" s="21">
         <f t="shared" si="0"/>
         <v>11261</v>
@@ -6412,12 +6415,12 @@
       <c r="B84" s="47"/>
       <c r="C84" s="48"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="70">
+      <c r="E84" s="72">
         <f>E80-G80</f>
         <v>11261</v>
       </c>
-      <c r="F84" s="71"/>
-      <c r="G84" s="72"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="74"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6433,11 +6436,11 @@
       <c r="B86" s="47"/>
       <c r="C86" s="48"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="73" t="s">
+      <c r="E86" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
